--- a/lib/jobs/run_nbutane_jsr_hartness.xlsx
+++ b/lib/jobs/run_nbutane_jsr_hartness.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FE3E4F-3073-C648-A556-37E2B364CAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB21E8-340E-5948-A853-C9CDD414A25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" activeTab="1" xr2:uid="{2D11CBDF-B31A-2D4F-AB7A-36B1E578E200}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -69,13 +68,13 @@
     <t>n-butane_merge.csv</t>
   </si>
   <si>
-    <t>combined.yaml</t>
-  </si>
-  <si>
     <t>Combined</t>
   </si>
   <si>
     <t>hartness_2023_jsr_n-butane.xlsx</t>
+  </si>
+  <si>
+    <t>combined.cti</t>
   </si>
 </sst>
 </file>
@@ -458,7 +457,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -480,7 +479,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,13 +501,13 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
